--- a/ERdesign.xlsx
+++ b/ERdesign.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>asldf</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>wdwad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F7"/>
+  <dimension ref="C4:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -418,6 +422,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
